--- a/Overview - Lithium Mining.xlsx
+++ b/Overview - Lithium Mining.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EB631-0160-4506-A28B-95C47509CC3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DAD9F0-5F20-4A31-B088-3C7C393446A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6677B739-C00A-40A2-8403-F79AEFCCA015}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Ticker</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>LSE</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Development/Startup</t>
   </si>
 </sst>
 </file>
@@ -570,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A5EA8-8FDB-49A2-A95E-09EB84EAF4F2}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:J18"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -587,10 +593,12 @@
     <col min="4" max="5" width="9.140625" style="4"/>
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="12" width="9.140625" style="4"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,8 +632,11 @@
       <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -671,8 +682,11 @@
         <f>[1]Main!$C$13</f>
         <v>67.290000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -680,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,7 +705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -699,7 +713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -707,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -715,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -723,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -731,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>

--- a/Overview - Lithium Mining.xlsx
+++ b/Overview - Lithium Mining.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DAD9F0-5F20-4A31-B088-3C7C393446A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988E29FE-82B3-4AE2-83D8-22714BC0A9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6677B739-C00A-40A2-8403-F79AEFCCA015}"/>
+    <workbookView xWindow="2745" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{6677B739-C00A-40A2-8403-F79AEFCCA015}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Ticker</t>
   </si>
@@ -241,7 +250,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -582,7 +591,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -643,6 +652,9 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -651,6 +663,9 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -692,6 +707,9 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
